--- a/Robustness.xlsx
+++ b/Robustness.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projeto Fapespa Resque\artigo_marcador\marcadores\Analise_qualitativa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/631fab7c83f2505c/Documentos/GitHub/Artificial_markers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E835405D-A96A-4205-9F42-D38413ED05DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{577019D5-FC1A-437B-94E1-C31BA8BD9387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Robustness" sheetId="1" r:id="rId1"/>
+    <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="473">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1458,19 +1458,34 @@
     <t>Additionally, integrating the system with controlled and even lighting sources, such as light boxes, could offer a promising direction for mitigating the challenges posed by lighting conditions.</t>
   </si>
   <si>
+    <t>\cite{li2017aircode}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To reduce imaging noise, we take multiple sweeps and average them. The imaging time can be shortened by using cameras with less sensor noise or using infrared projectors and cameras. </t>
+  </si>
+  <si>
+    <t>Here we see the code being successfully detected over a +/-40 degree range of code orientation with respect to the camera.</t>
+  </si>
+  <si>
+    <t>\cite{willis2013infrastructs}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDS systems commonly record multiple waveforms and average them together to reduce the effects of background noise, at the expense of slower scan rates. </t>
+  </si>
+  <si>
+    <t>Promised</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Stated</t>
+  </si>
+  <si>
+    <t>Level of evidence</t>
+  </si>
+  <si>
     <t>Evidence</t>
-  </si>
-  <si>
-    <t>Level of evidence</t>
-  </si>
-  <si>
-    <t>Promised</t>
-  </si>
-  <si>
-    <t>Tested</t>
-  </si>
-  <si>
-    <t>Stated</t>
   </si>
 </sst>
 </file>
@@ -1650,10 +1665,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1662,13 +1677,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1677,13 +1692,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1781,7 +1796,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:F321">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:F324">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Coder"/>
@@ -1995,11 +2010,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F321"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2024,10 +2039,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2044,7 +2059,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
@@ -2064,7 +2079,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>8</v>
@@ -2084,7 +2099,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
@@ -2104,7 +2119,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>11</v>
@@ -2124,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>13</v>
@@ -2144,7 +2159,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>15</v>
@@ -2164,7 +2179,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>17</v>
@@ -2184,7 +2199,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>18</v>
@@ -2204,7 +2219,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>21</v>
@@ -2224,7 +2239,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>23</v>
@@ -2244,7 +2259,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>24</v>
@@ -2264,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>25</v>
@@ -2284,7 +2299,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>27</v>
@@ -2304,7 +2319,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>28</v>
@@ -2324,7 +2339,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
@@ -2344,7 +2359,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>31</v>
@@ -2364,7 +2379,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>33</v>
@@ -2384,7 +2399,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>35</v>
@@ -2404,7 +2419,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>36</v>
@@ -2424,7 +2439,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>38</v>
@@ -2444,7 +2459,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>40</v>
@@ -2464,7 +2479,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>42</v>
@@ -2484,7 +2499,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>43</v>
@@ -2504,7 +2519,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>44</v>
@@ -2524,7 +2539,7 @@
         <v>45</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>46</v>
@@ -2544,7 +2559,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>47</v>
@@ -2564,7 +2579,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>48</v>
@@ -2584,7 +2599,7 @@
         <v>49</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>50</v>
@@ -2604,7 +2619,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>51</v>
@@ -2624,7 +2639,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>52</v>
@@ -2644,7 +2659,7 @@
         <v>53</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>54</v>
@@ -2664,7 +2679,7 @@
         <v>53</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>55</v>
@@ -2684,7 +2699,7 @@
         <v>56</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>57</v>
@@ -2704,7 +2719,7 @@
         <v>58</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>59</v>
@@ -2724,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>60</v>
@@ -2744,7 +2759,7 @@
         <v>20</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>61</v>
@@ -2764,7 +2779,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>62</v>
@@ -2784,7 +2799,7 @@
         <v>45</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>63</v>
@@ -2804,7 +2819,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>64</v>
@@ -2824,7 +2839,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>66</v>
@@ -2844,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>67</v>
@@ -2864,7 +2879,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>69</v>
@@ -2884,7 +2899,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>71</v>
@@ -2904,7 +2919,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>72</v>
@@ -2924,7 +2939,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>74</v>
@@ -2944,7 +2959,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>75</v>
@@ -2964,7 +2979,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>76</v>
@@ -2984,7 +2999,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>77</v>
@@ -3004,7 +3019,7 @@
         <v>45</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>78</v>
@@ -3024,7 +3039,7 @@
         <v>45</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>79</v>
@@ -3044,7 +3059,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>80</v>
@@ -3064,7 +3079,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>81</v>
@@ -3084,7 +3099,7 @@
         <v>53</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>82</v>
@@ -3104,7 +3119,7 @@
         <v>45</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>83</v>
@@ -3124,7 +3139,7 @@
         <v>45</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>84</v>
@@ -3144,7 +3159,7 @@
         <v>86</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>87</v>
@@ -3164,7 +3179,7 @@
         <v>86</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>88</v>
@@ -3184,7 +3199,7 @@
         <v>89</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>90</v>
@@ -3204,7 +3219,7 @@
         <v>45</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>91</v>
@@ -3224,7 +3239,7 @@
         <v>6</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>92</v>
@@ -3244,7 +3259,7 @@
         <v>93</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>94</v>
@@ -3264,7 +3279,7 @@
         <v>45</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>95</v>
@@ -3284,7 +3299,7 @@
         <v>45</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>96</v>
@@ -3304,7 +3319,7 @@
         <v>45</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>97</v>
@@ -3324,7 +3339,7 @@
         <v>45</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>98</v>
@@ -3344,7 +3359,7 @@
         <v>6</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>99</v>
@@ -3364,7 +3379,7 @@
         <v>45</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>100</v>
@@ -3384,7 +3399,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>101</v>
@@ -3404,7 +3419,7 @@
         <v>103</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>104</v>
@@ -3424,7 +3439,7 @@
         <v>14</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>105</v>
@@ -3444,7 +3459,7 @@
         <v>14</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>107</v>
@@ -3464,7 +3479,7 @@
         <v>53</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>108</v>
@@ -3484,7 +3499,7 @@
         <v>109</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>110</v>
@@ -3504,7 +3519,7 @@
         <v>112</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>113</v>
@@ -3524,7 +3539,7 @@
         <v>14</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>114</v>
@@ -3544,7 +3559,7 @@
         <v>115</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>116</v>
@@ -3564,7 +3579,7 @@
         <v>20</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>117</v>
@@ -3584,7 +3599,7 @@
         <v>9</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>119</v>
@@ -3604,7 +3619,7 @@
         <v>14</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>120</v>
@@ -3624,7 +3639,7 @@
         <v>109</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>121</v>
@@ -3644,7 +3659,7 @@
         <v>123</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>124</v>
@@ -3664,7 +3679,7 @@
         <v>14</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>125</v>
@@ -3684,7 +3699,7 @@
         <v>126</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>127</v>
@@ -3704,7 +3719,7 @@
         <v>6</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>128</v>
@@ -3724,7 +3739,7 @@
         <v>129</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>130</v>
@@ -3744,7 +3759,7 @@
         <v>14</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>132</v>
@@ -3764,7 +3779,7 @@
         <v>133</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>134</v>
@@ -3784,7 +3799,7 @@
         <v>109</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>135</v>
@@ -3804,7 +3819,7 @@
         <v>9</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>136</v>
@@ -3824,7 +3839,7 @@
         <v>9</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>137</v>
@@ -3844,7 +3859,7 @@
         <v>53</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>138</v>
@@ -3864,7 +3879,7 @@
         <v>86</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>139</v>
@@ -3884,7 +3899,7 @@
         <v>53</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>140</v>
@@ -3904,7 +3919,7 @@
         <v>37</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>141</v>
@@ -3924,7 +3939,7 @@
         <v>53</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>142</v>
@@ -3944,7 +3959,7 @@
         <v>53</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>143</v>
@@ -3964,7 +3979,7 @@
         <v>53</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>144</v>
@@ -3984,7 +3999,7 @@
         <v>37</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>145</v>
@@ -4004,7 +4019,7 @@
         <v>14</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>146</v>
@@ -4024,7 +4039,7 @@
         <v>6</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>148</v>
@@ -4044,7 +4059,7 @@
         <v>20</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>149</v>
@@ -4064,7 +4079,7 @@
         <v>58</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>150</v>
@@ -4084,7 +4099,7 @@
         <v>14</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>151</v>
@@ -4104,7 +4119,7 @@
         <v>20</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F105" s="9" t="s">
         <v>152</v>
@@ -4124,7 +4139,7 @@
         <v>6</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>153</v>
@@ -4144,7 +4159,7 @@
         <v>45</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>154</v>
@@ -4164,7 +4179,7 @@
         <v>14</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>156</v>
@@ -4184,7 +4199,7 @@
         <v>45</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>157</v>
@@ -4204,7 +4219,7 @@
         <v>12</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>158</v>
@@ -4224,7 +4239,7 @@
         <v>14</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>160</v>
@@ -4244,7 +4259,7 @@
         <v>162</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>163</v>
@@ -4264,7 +4279,7 @@
         <v>164</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F113" s="9" t="s">
         <v>165</v>
@@ -4284,7 +4299,7 @@
         <v>14</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>167</v>
@@ -4304,7 +4319,7 @@
         <v>14</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>169</v>
@@ -4324,7 +4339,7 @@
         <v>14</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>171</v>
@@ -4344,7 +4359,7 @@
         <v>103</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>173</v>
@@ -4364,7 +4379,7 @@
         <v>20</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>174</v>
@@ -4384,7 +4399,7 @@
         <v>175</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>176</v>
@@ -4404,7 +4419,7 @@
         <v>6</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>178</v>
@@ -4424,7 +4439,7 @@
         <v>12</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>180</v>
@@ -4444,7 +4459,7 @@
         <v>6</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>181</v>
@@ -4464,7 +4479,7 @@
         <v>45</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>182</v>
@@ -4484,7 +4499,7 @@
         <v>20</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>184</v>
@@ -4504,7 +4519,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>185</v>
@@ -4524,7 +4539,7 @@
         <v>32</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>187</v>
@@ -4544,7 +4559,7 @@
         <v>14</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F127" s="9" t="s">
         <v>188</v>
@@ -4564,7 +4579,7 @@
         <v>14</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>190</v>
@@ -4584,7 +4599,7 @@
         <v>123</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>191</v>
@@ -4604,7 +4619,7 @@
         <v>32</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>192</v>
@@ -4624,7 +4639,7 @@
         <v>20</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F131" s="9" t="s">
         <v>193</v>
@@ -4644,7 +4659,7 @@
         <v>12</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>195</v>
@@ -4664,7 +4679,7 @@
         <v>196</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>197</v>
@@ -4684,7 +4699,7 @@
         <v>198</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>199</v>
@@ -4704,7 +4719,7 @@
         <v>6</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F135" s="9" t="s">
         <v>201</v>
@@ -4724,7 +4739,7 @@
         <v>203</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>204</v>
@@ -4744,7 +4759,7 @@
         <v>9</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>205</v>
@@ -4764,7 +4779,7 @@
         <v>14</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>206</v>
@@ -4784,7 +4799,7 @@
         <v>6</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>208</v>
@@ -4804,7 +4819,7 @@
         <v>14</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>209</v>
@@ -4824,7 +4839,7 @@
         <v>6</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F141" s="9" t="s">
         <v>210</v>
@@ -4844,7 +4859,7 @@
         <v>103</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>211</v>
@@ -4864,7 +4879,7 @@
         <v>53</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F143" s="9" t="s">
         <v>212</v>
@@ -4884,7 +4899,7 @@
         <v>20</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>213</v>
@@ -4904,7 +4919,7 @@
         <v>6</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F145" s="9" t="s">
         <v>215</v>
@@ -4924,7 +4939,7 @@
         <v>14</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>216</v>
@@ -4944,7 +4959,7 @@
         <v>12</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F147" s="9" t="s">
         <v>218</v>
@@ -4964,7 +4979,7 @@
         <v>20</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>220</v>
@@ -4984,7 +4999,7 @@
         <v>20</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F149" s="9" t="s">
         <v>221</v>
@@ -5004,7 +5019,7 @@
         <v>6</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>222</v>
@@ -5024,7 +5039,7 @@
         <v>86</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F151" s="9" t="s">
         <v>223</v>
@@ -5084,7 +5099,7 @@
         <v>45</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>227</v>
@@ -5104,7 +5119,7 @@
         <v>228</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F155" s="9" t="s">
         <v>229</v>
@@ -5124,7 +5139,7 @@
         <v>45</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>230</v>
@@ -5144,7 +5159,7 @@
         <v>109</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F157" s="9" t="s">
         <v>231</v>
@@ -5164,7 +5179,7 @@
         <v>45</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>232</v>
@@ -5184,7 +5199,7 @@
         <v>53</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F159" s="9" t="s">
         <v>233</v>
@@ -5204,7 +5219,7 @@
         <v>234</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>235</v>
@@ -5224,7 +5239,7 @@
         <v>12</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F161" s="9" t="s">
         <v>236</v>
@@ -5244,7 +5259,7 @@
         <v>237</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>238</v>
@@ -5264,7 +5279,7 @@
         <v>45</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F163" s="9" t="s">
         <v>239</v>
@@ -5284,7 +5299,7 @@
         <v>20</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>240</v>
@@ -5304,7 +5319,7 @@
         <v>109</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F165" s="9" t="s">
         <v>242</v>
@@ -5324,7 +5339,7 @@
         <v>243</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>244</v>
@@ -5344,7 +5359,7 @@
         <v>12</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F167" s="9" t="s">
         <v>245</v>
@@ -5364,7 +5379,7 @@
         <v>247</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>248</v>
@@ -5384,7 +5399,7 @@
         <v>20</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F169" s="9" t="s">
         <v>249</v>
@@ -5404,7 +5419,7 @@
         <v>20</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>250</v>
@@ -5424,7 +5439,7 @@
         <v>247</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F171" s="9" t="s">
         <v>251</v>
@@ -5444,7 +5459,7 @@
         <v>247</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>252</v>
@@ -5464,7 +5479,7 @@
         <v>247</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F173" s="9" t="s">
         <v>253</v>
@@ -5484,7 +5499,7 @@
         <v>6</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>255</v>
@@ -5504,7 +5519,7 @@
         <v>45</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F175" s="9" t="s">
         <v>256</v>
@@ -5524,7 +5539,7 @@
         <v>20</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>257</v>
@@ -5544,7 +5559,7 @@
         <v>247</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F177" s="9" t="s">
         <v>258</v>
@@ -5564,7 +5579,7 @@
         <v>45</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>260</v>
@@ -5584,7 +5599,7 @@
         <v>93</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F179" s="9" t="s">
         <v>261</v>
@@ -5604,7 +5619,7 @@
         <v>14</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>262</v>
@@ -5624,7 +5639,7 @@
         <v>14</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F181" s="9" t="s">
         <v>263</v>
@@ -5644,7 +5659,7 @@
         <v>53</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>264</v>
@@ -5664,7 +5679,7 @@
         <v>123</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F183" s="9" t="s">
         <v>265</v>
@@ -5684,7 +5699,7 @@
         <v>12</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>266</v>
@@ -5704,7 +5719,7 @@
         <v>14</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F185" s="9" t="s">
         <v>267</v>
@@ -5724,7 +5739,7 @@
         <v>14</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>268</v>
@@ -5744,7 +5759,7 @@
         <v>45</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F187" s="9" t="s">
         <v>269</v>
@@ -5764,7 +5779,7 @@
         <v>247</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>270</v>
@@ -5784,7 +5799,7 @@
         <v>247</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F189" s="9" t="s">
         <v>271</v>
@@ -5804,7 +5819,7 @@
         <v>45</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>272</v>
@@ -5824,7 +5839,7 @@
         <v>6</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F191" s="9" t="s">
         <v>273</v>
@@ -5844,7 +5859,7 @@
         <v>247</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>275</v>
@@ -5864,7 +5879,7 @@
         <v>12</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F193" s="9" t="s">
         <v>276</v>
@@ -5884,7 +5899,7 @@
         <v>14</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>277</v>
@@ -5904,7 +5919,7 @@
         <v>32</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F195" s="9" t="s">
         <v>278</v>
@@ -5924,7 +5939,7 @@
         <v>247</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>279</v>
@@ -5944,7 +5959,7 @@
         <v>280</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>281</v>
@@ -5964,7 +5979,7 @@
         <v>247</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>282</v>
@@ -5984,7 +5999,7 @@
         <v>6</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F199" s="9" t="s">
         <v>283</v>
@@ -6004,7 +6019,7 @@
         <v>285</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>286</v>
@@ -6024,7 +6039,7 @@
         <v>288</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F201" s="9" t="s">
         <v>289</v>
@@ -6044,7 +6059,7 @@
         <v>14</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>290</v>
@@ -6064,7 +6079,7 @@
         <v>133</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F203" s="9" t="s">
         <v>291</v>
@@ -6084,7 +6099,7 @@
         <v>20</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>292</v>
@@ -6104,7 +6119,7 @@
         <v>32</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F205" s="9" t="s">
         <v>293</v>
@@ -6124,7 +6139,7 @@
         <v>32</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>294</v>
@@ -6144,7 +6159,7 @@
         <v>14</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F207" s="9" t="s">
         <v>296</v>
@@ -6164,7 +6179,7 @@
         <v>9</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>297</v>
@@ -6184,7 +6199,7 @@
         <v>20</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F209" s="9" t="s">
         <v>298</v>
@@ -6204,7 +6219,7 @@
         <v>86</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>300</v>
@@ -6224,7 +6239,7 @@
         <v>301</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F211" s="9" t="s">
         <v>300</v>
@@ -6244,7 +6259,7 @@
         <v>6</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>302</v>
@@ -6264,7 +6279,7 @@
         <v>53</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F213" s="9" t="s">
         <v>303</v>
@@ -6284,7 +6299,7 @@
         <v>6</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>305</v>
@@ -6304,7 +6319,7 @@
         <v>109</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F215" s="9" t="s">
         <v>306</v>
@@ -6324,7 +6339,7 @@
         <v>14</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>308</v>
@@ -6344,7 +6359,7 @@
         <v>310</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F217" s="9" t="s">
         <v>311</v>
@@ -6364,7 +6379,7 @@
         <v>312</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F218" s="6" t="s">
         <v>313</v>
@@ -6384,7 +6399,7 @@
         <v>103</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F219" s="9" t="s">
         <v>315</v>
@@ -6404,7 +6419,7 @@
         <v>14</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F220" s="6" t="s">
         <v>317</v>
@@ -6424,7 +6439,7 @@
         <v>14</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F221" s="9" t="s">
         <v>318</v>
@@ -6444,7 +6459,7 @@
         <v>123</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F222" s="6" t="s">
         <v>320</v>
@@ -6464,7 +6479,7 @@
         <v>321</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F223" s="9" t="s">
         <v>322</v>
@@ -6484,7 +6499,7 @@
         <v>9</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F224" s="6" t="s">
         <v>323</v>
@@ -6504,7 +6519,7 @@
         <v>20</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F225" s="9" t="s">
         <v>324</v>
@@ -6524,7 +6539,7 @@
         <v>6</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>325</v>
@@ -6544,7 +6559,7 @@
         <v>327</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F227" s="9" t="s">
         <v>328</v>
@@ -6564,7 +6579,7 @@
         <v>53</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>329</v>
@@ -6584,7 +6599,7 @@
         <v>9</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F229" s="9" t="s">
         <v>330</v>
@@ -6604,7 +6619,7 @@
         <v>45</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>332</v>
@@ -6624,7 +6639,7 @@
         <v>12</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F231" s="9" t="s">
         <v>334</v>
@@ -6644,7 +6659,7 @@
         <v>53</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F232" s="6" t="s">
         <v>335</v>
@@ -6664,7 +6679,7 @@
         <v>337</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F233" s="9" t="s">
         <v>338</v>
@@ -6684,7 +6699,7 @@
         <v>12</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>339</v>
@@ -6704,7 +6719,7 @@
         <v>6</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F235" s="9" t="s">
         <v>340</v>
@@ -6724,7 +6739,7 @@
         <v>14</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F236" s="6" t="s">
         <v>342</v>
@@ -6744,7 +6759,7 @@
         <v>343</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F237" s="9" t="s">
         <v>344</v>
@@ -6764,7 +6779,7 @@
         <v>6</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F238" s="6" t="s">
         <v>345</v>
@@ -6784,7 +6799,7 @@
         <v>347</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F239" s="9" t="s">
         <v>348</v>
@@ -6804,7 +6819,7 @@
         <v>20</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F240" s="6" t="s">
         <v>349</v>
@@ -6824,7 +6839,7 @@
         <v>350</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F241" s="9" t="s">
         <v>351</v>
@@ -6844,7 +6859,7 @@
         <v>109</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F242" s="6" t="s">
         <v>352</v>
@@ -6864,7 +6879,7 @@
         <v>353</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F243" s="9" t="s">
         <v>354</v>
@@ -6884,7 +6899,7 @@
         <v>301</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F244" s="6" t="s">
         <v>356</v>
@@ -6904,7 +6919,7 @@
         <v>109</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F245" s="9" t="s">
         <v>358</v>
@@ -6924,7 +6939,7 @@
         <v>12</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F246" s="6" t="s">
         <v>359</v>
@@ -6964,7 +6979,7 @@
         <v>20</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F248" s="6" t="s">
         <v>362</v>
@@ -6984,7 +6999,7 @@
         <v>363</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F249" s="9" t="s">
         <v>364</v>
@@ -7004,7 +7019,7 @@
         <v>14</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F250" s="6" t="s">
         <v>366</v>
@@ -7024,7 +7039,7 @@
         <v>368</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F251" s="9" t="s">
         <v>369</v>
@@ -7044,7 +7059,7 @@
         <v>12</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F252" s="6" t="s">
         <v>370</v>
@@ -7064,7 +7079,7 @@
         <v>20</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F253" s="9" t="s">
         <v>371</v>
@@ -7084,7 +7099,7 @@
         <v>9</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F254" s="6" t="s">
         <v>373</v>
@@ -7104,7 +7119,7 @@
         <v>53</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F255" s="9" t="s">
         <v>374</v>
@@ -7124,7 +7139,7 @@
         <v>6</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F256" s="6" t="s">
         <v>376</v>
@@ -7144,7 +7159,7 @@
         <v>377</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F257" s="9" t="s">
         <v>378</v>
@@ -7184,7 +7199,7 @@
         <v>20</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F259" s="9" t="s">
         <v>381</v>
@@ -7204,7 +7219,7 @@
         <v>9</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F260" s="6" t="s">
         <v>382</v>
@@ -7224,7 +7239,7 @@
         <v>12</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F261" s="9" t="s">
         <v>383</v>
@@ -7244,7 +7259,7 @@
         <v>9</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F262" s="6" t="s">
         <v>384</v>
@@ -7264,7 +7279,7 @@
         <v>9</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F263" s="9" t="s">
         <v>386</v>
@@ -7284,7 +7299,7 @@
         <v>6</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F264" s="6" t="s">
         <v>387</v>
@@ -7304,7 +7319,7 @@
         <v>89</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F265" s="9" t="s">
         <v>389</v>
@@ -7324,7 +7339,7 @@
         <v>175</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F266" s="6" t="s">
         <v>390</v>
@@ -7344,7 +7359,7 @@
         <v>12</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F267" s="9" t="s">
         <v>392</v>
@@ -7364,7 +7379,7 @@
         <v>394</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F268" s="6" t="s">
         <v>395</v>
@@ -7384,7 +7399,7 @@
         <v>20</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F269" s="9" t="s">
         <v>396</v>
@@ -7404,7 +7419,7 @@
         <v>14</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F270" s="6" t="s">
         <v>397</v>
@@ -7424,7 +7439,7 @@
         <v>6</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F271" s="9" t="s">
         <v>398</v>
@@ -7444,7 +7459,7 @@
         <v>399</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F272" s="6" t="s">
         <v>400</v>
@@ -7464,7 +7479,7 @@
         <v>402</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F273" s="9" t="s">
         <v>403</v>
@@ -7484,7 +7499,7 @@
         <v>6</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F274" s="6" t="s">
         <v>405</v>
@@ -7504,7 +7519,7 @@
         <v>406</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F275" s="9" t="s">
         <v>407</v>
@@ -7524,7 +7539,7 @@
         <v>14</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F276" s="6" t="s">
         <v>408</v>
@@ -7544,7 +7559,7 @@
         <v>6</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F277" s="9" t="s">
         <v>409</v>
@@ -7564,7 +7579,7 @@
         <v>12</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F278" s="6" t="s">
         <v>410</v>
@@ -7584,7 +7599,7 @@
         <v>20</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F279" s="9" t="s">
         <v>411</v>
@@ -7604,7 +7619,7 @@
         <v>20</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F280" s="6" t="s">
         <v>413</v>
@@ -7624,7 +7639,7 @@
         <v>414</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F281" s="9" t="s">
         <v>415</v>
@@ -7644,7 +7659,7 @@
         <v>20</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F282" s="6" t="s">
         <v>416</v>
@@ -7664,7 +7679,7 @@
         <v>53</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F283" s="9" t="s">
         <v>417</v>
@@ -7684,7 +7699,7 @@
         <v>109</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F284" s="6" t="s">
         <v>418</v>
@@ -7704,7 +7719,7 @@
         <v>6</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F285" s="9" t="s">
         <v>419</v>
@@ -7724,7 +7739,7 @@
         <v>14</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F286" s="6" t="s">
         <v>420</v>
@@ -7744,7 +7759,7 @@
         <v>45</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F287" s="9" t="s">
         <v>421</v>
@@ -7764,7 +7779,7 @@
         <v>14</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F288" s="6" t="s">
         <v>423</v>
@@ -7784,7 +7799,7 @@
         <v>45</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F289" s="9" t="s">
         <v>424</v>
@@ -7804,7 +7819,7 @@
         <v>14</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F290" s="6" t="s">
         <v>426</v>
@@ -7824,7 +7839,7 @@
         <v>6</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F291" s="9" t="s">
         <v>427</v>
@@ -7844,7 +7859,7 @@
         <v>14</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F292" s="6" t="s">
         <v>428</v>
@@ -7864,7 +7879,7 @@
         <v>14</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F293" s="9" t="s">
         <v>429</v>
@@ -7884,7 +7899,7 @@
         <v>12</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F294" s="6" t="s">
         <v>430</v>
@@ -7904,7 +7919,7 @@
         <v>6</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F295" s="9" t="s">
         <v>431</v>
@@ -7924,7 +7939,7 @@
         <v>14</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F296" s="6" t="s">
         <v>433</v>
@@ -7944,7 +7959,7 @@
         <v>109</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F297" s="9" t="s">
         <v>434</v>
@@ -7984,7 +7999,7 @@
         <v>6</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F299" s="9" t="s">
         <v>436</v>
@@ -8004,7 +8019,7 @@
         <v>162</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F300" s="6" t="s">
         <v>437</v>
@@ -8024,7 +8039,7 @@
         <v>6</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F301" s="9" t="s">
         <v>438</v>
@@ -8044,7 +8059,7 @@
         <v>12</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F302" s="6" t="s">
         <v>439</v>
@@ -8064,7 +8079,7 @@
         <v>14</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F303" s="9" t="s">
         <v>267</v>
@@ -8084,7 +8099,7 @@
         <v>45</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F304" s="6" t="s">
         <v>440</v>
@@ -8104,7 +8119,7 @@
         <v>441</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F305" s="9" t="s">
         <v>442</v>
@@ -8124,7 +8139,7 @@
         <v>20</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F306" s="6" t="s">
         <v>443</v>
@@ -8144,7 +8159,7 @@
         <v>337</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F307" s="9" t="s">
         <v>444</v>
@@ -8164,7 +8179,7 @@
         <v>234</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F308" s="6" t="s">
         <v>445</v>
@@ -8184,7 +8199,7 @@
         <v>12</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F309" s="9" t="s">
         <v>446</v>
@@ -8204,7 +8219,7 @@
         <v>109</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F310" s="6" t="s">
         <v>447</v>
@@ -8224,7 +8239,7 @@
         <v>53</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F311" s="9" t="s">
         <v>448</v>
@@ -8244,7 +8259,7 @@
         <v>14</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F312" s="6" t="s">
         <v>450</v>
@@ -8264,7 +8279,7 @@
         <v>12</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F313" s="9" t="s">
         <v>451</v>
@@ -8284,7 +8299,7 @@
         <v>109</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F314" s="6" t="s">
         <v>452</v>
@@ -8304,7 +8319,7 @@
         <v>53</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F315" s="9" t="s">
         <v>454</v>
@@ -8324,7 +8339,7 @@
         <v>12</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F316" s="6" t="s">
         <v>456</v>
@@ -8344,7 +8359,7 @@
         <v>123</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F317" s="9" t="s">
         <v>457</v>
@@ -8364,7 +8379,7 @@
         <v>45</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F318" s="6" t="s">
         <v>458</v>
@@ -8384,7 +8399,7 @@
         <v>109</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F319" s="9" t="s">
         <v>460</v>
@@ -8404,30 +8419,90 @@
         <v>53</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F320" s="6" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="10">
+      <c r="A321" s="7">
         <v>45593.579680798612</v>
       </c>
-      <c r="B321" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C321" s="11" t="s">
+      <c r="B321" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="D321" s="11" t="s">
+      <c r="D321" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E321" s="11" t="s">
+      <c r="E321" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="F321" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="4">
+        <v>45894.61339140046</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F322" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="7">
+        <v>45894.614312152778</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D323" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E323" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="F323" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="F321" s="12" t="s">
-        <v>462</v>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="10">
+        <v>45894.619174814812</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D324" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E324" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F324" s="12" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
